--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sertad1-Ar.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sertad1-Ar.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.06448166666667</v>
+        <v>13.80646166666667</v>
       </c>
       <c r="H2">
-        <v>45.193445</v>
+        <v>41.419385</v>
       </c>
       <c r="I2">
-        <v>0.2352496185839758</v>
+        <v>0.2210624443376167</v>
       </c>
       <c r="J2">
-        <v>0.2352496185839758</v>
+        <v>0.2210624443376167</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.221475333333333</v>
+        <v>0.5250010000000001</v>
       </c>
       <c r="N2">
-        <v>3.664426</v>
+        <v>1.575003</v>
       </c>
       <c r="O2">
-        <v>0.1659401365378215</v>
+        <v>0.07505143515225263</v>
       </c>
       <c r="P2">
-        <v>0.1659401365378215</v>
+        <v>0.07505143515225261</v>
       </c>
       <c r="Q2">
-        <v>18.40089276528555</v>
+        <v>7.248406181461667</v>
       </c>
       <c r="R2">
-        <v>165.60803488757</v>
+        <v>65.23565563315501</v>
       </c>
       <c r="S2">
-        <v>0.03903735382829537</v>
+        <v>0.0165910537058031</v>
       </c>
       <c r="T2">
-        <v>0.03903735382829537</v>
+        <v>0.01659105370580309</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.06448166666667</v>
+        <v>13.80646166666667</v>
       </c>
       <c r="H3">
-        <v>45.193445</v>
+        <v>41.419385</v>
       </c>
       <c r="I3">
-        <v>0.2352496185839758</v>
+        <v>0.2210624443376167</v>
       </c>
       <c r="J3">
-        <v>0.2352496185839758</v>
+        <v>0.2210624443376167</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.457871</v>
+        <v>4.457871000000001</v>
       </c>
       <c r="N3">
         <v>13.373613</v>
       </c>
       <c r="O3">
-        <v>0.6056116748500271</v>
+        <v>0.6372742457130702</v>
       </c>
       <c r="P3">
-        <v>0.6056116748500271</v>
+        <v>0.6372742457130701</v>
       </c>
       <c r="Q3">
-        <v>67.155515951865</v>
+        <v>61.54742507644501</v>
       </c>
       <c r="R3">
-        <v>604.3996435667851</v>
+        <v>553.9268256880051</v>
       </c>
       <c r="S3">
-        <v>0.1424699155184716</v>
+        <v>0.1408774024707423</v>
       </c>
       <c r="T3">
-        <v>0.1424699155184716</v>
+        <v>0.1408774024707423</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.06448166666667</v>
+        <v>13.80646166666667</v>
       </c>
       <c r="H4">
-        <v>45.193445</v>
+        <v>41.419385</v>
       </c>
       <c r="I4">
-        <v>0.2352496185839758</v>
+        <v>0.2210624443376167</v>
       </c>
       <c r="J4">
-        <v>0.2352496185839758</v>
+        <v>0.2210624443376167</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.681593333333333</v>
+        <v>2.012344</v>
       </c>
       <c r="N4">
-        <v>5.04478</v>
+        <v>6.037032</v>
       </c>
       <c r="O4">
-        <v>0.2284481886121514</v>
+        <v>0.2876743191346772</v>
       </c>
       <c r="P4">
-        <v>0.2284481886121514</v>
+        <v>0.2876743191346771</v>
       </c>
       <c r="Q4">
-        <v>25.33233194078889</v>
+        <v>27.78335029614666</v>
       </c>
       <c r="R4">
-        <v>227.9909874671</v>
+        <v>250.05015266532</v>
       </c>
       <c r="S4">
-        <v>0.05374234923720877</v>
+        <v>0.06359398816107137</v>
       </c>
       <c r="T4">
-        <v>0.05374234923720877</v>
+        <v>0.06359398816107135</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>37.199594</v>
       </c>
       <c r="I5">
-        <v>0.1936384867313999</v>
+        <v>0.1985406876033273</v>
       </c>
       <c r="J5">
-        <v>0.1936384867313999</v>
+        <v>0.1985406876033273</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.221475333333333</v>
+        <v>0.5250010000000001</v>
       </c>
       <c r="N5">
-        <v>3.664426</v>
+        <v>1.575003</v>
       </c>
       <c r="O5">
-        <v>0.1659401365378215</v>
+        <v>0.07505143515225263</v>
       </c>
       <c r="P5">
-        <v>0.1659401365378215</v>
+        <v>0.07505143515225261</v>
       </c>
       <c r="Q5">
-        <v>15.14612882700489</v>
+        <v>6.509941349864667</v>
       </c>
       <c r="R5">
-        <v>136.315159443044</v>
+        <v>58.589472148782</v>
       </c>
       <c r="S5">
-        <v>0.03213239692718564</v>
+        <v>0.01490076354074477</v>
       </c>
       <c r="T5">
-        <v>0.03213239692718564</v>
+        <v>0.01490076354074477</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>37.199594</v>
       </c>
       <c r="I6">
-        <v>0.1936384867313999</v>
+        <v>0.1985406876033273</v>
       </c>
       <c r="J6">
-        <v>0.1936384867313999</v>
+        <v>0.1985406876033273</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.457871</v>
+        <v>4.457871000000001</v>
       </c>
       <c r="N6">
         <v>13.373613</v>
       </c>
       <c r="O6">
-        <v>0.6056116748500271</v>
+        <v>0.6372742457130702</v>
       </c>
       <c r="P6">
-        <v>0.6056116748500271</v>
+        <v>0.6372742457130701</v>
       </c>
       <c r="Q6">
-        <v>55.27699710145799</v>
+        <v>55.27699710145801</v>
       </c>
       <c r="R6">
-        <v>497.492973913122</v>
+        <v>497.4929739131221</v>
       </c>
       <c r="S6">
-        <v>0.1172697282648278</v>
+        <v>0.1265248669357647</v>
       </c>
       <c r="T6">
-        <v>0.1172697282648278</v>
+        <v>0.1265248669357647</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>37.199594</v>
       </c>
       <c r="I7">
-        <v>0.1936384867313999</v>
+        <v>0.1985406876033273</v>
       </c>
       <c r="J7">
-        <v>0.1936384867313999</v>
+        <v>0.1985406876033273</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.681593333333333</v>
+        <v>2.012344</v>
       </c>
       <c r="N7">
-        <v>5.04478</v>
+        <v>6.037032</v>
       </c>
       <c r="O7">
-        <v>0.2284481886121514</v>
+        <v>0.2876743191346772</v>
       </c>
       <c r="P7">
-        <v>0.2284481886121514</v>
+        <v>0.2876743191346771</v>
       </c>
       <c r="Q7">
-        <v>20.85152975770222</v>
+        <v>24.95279326277867</v>
       </c>
       <c r="R7">
-        <v>187.66376781932</v>
+        <v>224.575139365008</v>
       </c>
       <c r="S7">
-        <v>0.04423636153938642</v>
+        <v>0.05711505712681783</v>
       </c>
       <c r="T7">
-        <v>0.04423636153938642</v>
+        <v>0.05711505712681782</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.26302666666667</v>
+        <v>20.11717366666667</v>
       </c>
       <c r="H8">
-        <v>39.78908</v>
+        <v>60.35152100000001</v>
       </c>
       <c r="I8">
-        <v>0.2071177776734501</v>
+        <v>0.3221065390457394</v>
       </c>
       <c r="J8">
-        <v>0.2071177776734501</v>
+        <v>0.3221065390457393</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.221475333333333</v>
+        <v>0.5250010000000001</v>
       </c>
       <c r="N8">
-        <v>3.664426</v>
+        <v>1.575003</v>
       </c>
       <c r="O8">
-        <v>0.1659401365378215</v>
+        <v>0.07505143515225263</v>
       </c>
       <c r="P8">
-        <v>0.1659401365378215</v>
+        <v>0.07505143515225261</v>
       </c>
       <c r="Q8">
-        <v>16.20045991867556</v>
+        <v>10.56153629217367</v>
       </c>
       <c r="R8">
-        <v>145.80413926808</v>
+        <v>95.05382662956302</v>
       </c>
       <c r="S8">
-        <v>0.03436915230654248</v>
+        <v>0.02417455802730784</v>
       </c>
       <c r="T8">
-        <v>0.03436915230654248</v>
+        <v>0.02417455802730783</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.26302666666667</v>
+        <v>20.11717366666667</v>
       </c>
       <c r="H9">
-        <v>39.78908</v>
+        <v>60.35152100000001</v>
       </c>
       <c r="I9">
-        <v>0.2071177776734501</v>
+        <v>0.3221065390457394</v>
       </c>
       <c r="J9">
-        <v>0.2071177776734501</v>
+        <v>0.3221065390457393</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.457871</v>
+        <v>4.457871000000001</v>
       </c>
       <c r="N9">
         <v>13.373613</v>
       </c>
       <c r="O9">
-        <v>0.6056116748500271</v>
+        <v>0.6372742457130702</v>
       </c>
       <c r="P9">
-        <v>0.6056116748500271</v>
+        <v>0.6372742457130701</v>
       </c>
       <c r="Q9">
-        <v>59.12486194956</v>
+        <v>89.67976509059703</v>
       </c>
       <c r="R9">
-        <v>532.12375754604</v>
+        <v>807.1178858153733</v>
       </c>
       <c r="S9">
-        <v>0.1254329442280337</v>
+        <v>0.2052702017096212</v>
       </c>
       <c r="T9">
-        <v>0.1254329442280337</v>
+        <v>0.2052702017096211</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.26302666666667</v>
+        <v>20.11717366666667</v>
       </c>
       <c r="H10">
-        <v>39.78908</v>
+        <v>60.35152100000001</v>
       </c>
       <c r="I10">
-        <v>0.2071177776734501</v>
+        <v>0.3221065390457394</v>
       </c>
       <c r="J10">
-        <v>0.2071177776734501</v>
+        <v>0.3221065390457393</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.681593333333333</v>
+        <v>2.012344</v>
       </c>
       <c r="N10">
-        <v>5.04478</v>
+        <v>6.037032</v>
       </c>
       <c r="O10">
-        <v>0.2284481886121514</v>
+        <v>0.2876743191346772</v>
       </c>
       <c r="P10">
-        <v>0.2284481886121514</v>
+        <v>0.2876743191346771</v>
       </c>
       <c r="Q10">
-        <v>22.30301722248889</v>
+        <v>40.48267372507468</v>
       </c>
       <c r="R10">
-        <v>200.7271550024</v>
+        <v>364.344063525672</v>
       </c>
       <c r="S10">
-        <v>0.04731568113887397</v>
+        <v>0.09266177930881038</v>
       </c>
       <c r="T10">
-        <v>0.04731568113887397</v>
+        <v>0.09266177930881035</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.961503666666666</v>
+        <v>4.066281666666666</v>
       </c>
       <c r="H11">
-        <v>14.884511</v>
+        <v>12.198845</v>
       </c>
       <c r="I11">
-        <v>0.077479721573759</v>
+        <v>0.06510735236159866</v>
       </c>
       <c r="J11">
-        <v>0.077479721573759</v>
+        <v>0.06510735236159866</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.221475333333333</v>
+        <v>0.5250010000000001</v>
       </c>
       <c r="N11">
-        <v>3.664426</v>
+        <v>1.575003</v>
       </c>
       <c r="O11">
-        <v>0.1659401365378215</v>
+        <v>0.07505143515225263</v>
       </c>
       <c r="P11">
-        <v>0.1659401365378215</v>
+        <v>0.07505143515225261</v>
       </c>
       <c r="Q11">
-        <v>6.060354345076221</v>
+        <v>2.134801941281666</v>
       </c>
       <c r="R11">
-        <v>54.543189105686</v>
+        <v>19.213217471535</v>
       </c>
       <c r="S11">
-        <v>0.01285699557686196</v>
+        <v>0.004886400233701384</v>
       </c>
       <c r="T11">
-        <v>0.01285699557686196</v>
+        <v>0.004886400233701383</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.961503666666666</v>
+        <v>4.066281666666666</v>
       </c>
       <c r="H12">
-        <v>14.884511</v>
+        <v>12.198845</v>
       </c>
       <c r="I12">
-        <v>0.077479721573759</v>
+        <v>0.06510735236159866</v>
       </c>
       <c r="J12">
-        <v>0.077479721573759</v>
+        <v>0.06510735236159866</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.457871</v>
+        <v>4.457871000000001</v>
       </c>
       <c r="N12">
         <v>13.373613</v>
       </c>
       <c r="O12">
-        <v>0.6056116748500271</v>
+        <v>0.6372742457130702</v>
       </c>
       <c r="P12">
-        <v>0.6056116748500271</v>
+        <v>0.6372742457130701</v>
       </c>
       <c r="Q12">
-        <v>22.117743312027</v>
+        <v>18.126959119665</v>
       </c>
       <c r="R12">
-        <v>199.059689808243</v>
+        <v>163.142632076985</v>
       </c>
       <c r="S12">
-        <v>0.04692262394919797</v>
+        <v>0.04149123886661287</v>
       </c>
       <c r="T12">
-        <v>0.04692262394919797</v>
+        <v>0.04149123886661286</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.961503666666666</v>
+        <v>4.066281666666666</v>
       </c>
       <c r="H13">
-        <v>14.884511</v>
+        <v>12.198845</v>
       </c>
       <c r="I13">
-        <v>0.077479721573759</v>
+        <v>0.06510735236159866</v>
       </c>
       <c r="J13">
-        <v>0.077479721573759</v>
+        <v>0.06510735236159866</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.681593333333333</v>
+        <v>2.012344</v>
       </c>
       <c r="N13">
-        <v>5.04478</v>
+        <v>6.037032</v>
       </c>
       <c r="O13">
-        <v>0.2284481886121514</v>
+        <v>0.2876743191346772</v>
       </c>
       <c r="P13">
-        <v>0.2284481886121514</v>
+        <v>0.2876743191346771</v>
       </c>
       <c r="Q13">
-        <v>8.343231489175556</v>
+        <v>8.182757514226665</v>
       </c>
       <c r="R13">
-        <v>75.08908340258</v>
+        <v>73.64481762803999</v>
       </c>
       <c r="S13">
-        <v>0.01770010204769907</v>
+        <v>0.01872971326128441</v>
       </c>
       <c r="T13">
-        <v>0.01770010204769907</v>
+        <v>0.01872971326128441</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.347281</v>
+        <v>12.06524866666667</v>
       </c>
       <c r="H14">
-        <v>55.041843</v>
+        <v>36.195746</v>
       </c>
       <c r="I14">
-        <v>0.2865143954374152</v>
+        <v>0.1931829766517179</v>
       </c>
       <c r="J14">
-        <v>0.2865143954374152</v>
+        <v>0.1931829766517179</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.221475333333333</v>
+        <v>0.5250010000000001</v>
       </c>
       <c r="N14">
-        <v>3.664426</v>
+        <v>1.575003</v>
       </c>
       <c r="O14">
-        <v>0.1659401365378215</v>
+        <v>0.07505143515225263</v>
       </c>
       <c r="P14">
-        <v>0.1659401365378215</v>
+        <v>0.07505143515225261</v>
       </c>
       <c r="Q14">
-        <v>22.41075117523533</v>
+        <v>6.334267615248668</v>
       </c>
       <c r="R14">
-        <v>201.696760577118</v>
+        <v>57.008408537238</v>
       </c>
       <c r="S14">
-        <v>0.04754423789893607</v>
+        <v>0.01449865964469554</v>
       </c>
       <c r="T14">
-        <v>0.04754423789893607</v>
+        <v>0.01449865964469554</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.347281</v>
+        <v>12.06524866666667</v>
       </c>
       <c r="H15">
-        <v>55.041843</v>
+        <v>36.195746</v>
       </c>
       <c r="I15">
-        <v>0.2865143954374152</v>
+        <v>0.1931829766517179</v>
       </c>
       <c r="J15">
-        <v>0.2865143954374152</v>
+        <v>0.1931829766517179</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.457871</v>
+        <v>4.457871000000001</v>
       </c>
       <c r="N15">
         <v>13.373613</v>
       </c>
       <c r="O15">
-        <v>0.6056116748500271</v>
+        <v>0.6372742457130702</v>
       </c>
       <c r="P15">
-        <v>0.6056116748500271</v>
+        <v>0.6372742457130701</v>
       </c>
       <c r="Q15">
-        <v>81.789811898751</v>
+        <v>53.78532213892201</v>
       </c>
       <c r="R15">
-        <v>736.108307088759</v>
+        <v>484.0678992502981</v>
       </c>
       <c r="S15">
-        <v>0.173516462889496</v>
+        <v>0.1231105357303292</v>
       </c>
       <c r="T15">
-        <v>0.173516462889496</v>
+        <v>0.1231105357303292</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.347281</v>
+        <v>12.06524866666667</v>
       </c>
       <c r="H16">
-        <v>55.041843</v>
+        <v>36.195746</v>
       </c>
       <c r="I16">
-        <v>0.2865143954374152</v>
+        <v>0.1931829766517179</v>
       </c>
       <c r="J16">
-        <v>0.2865143954374152</v>
+        <v>0.1931829766517179</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.681593333333333</v>
+        <v>2.012344</v>
       </c>
       <c r="N16">
-        <v>5.04478</v>
+        <v>6.037032</v>
       </c>
       <c r="O16">
-        <v>0.2284481886121514</v>
+        <v>0.2876743191346772</v>
       </c>
       <c r="P16">
-        <v>0.2284481886121514</v>
+        <v>0.2876743191346771</v>
       </c>
       <c r="Q16">
-        <v>30.85266541439334</v>
+        <v>24.27943076287467</v>
       </c>
       <c r="R16">
-        <v>277.67398872954</v>
+        <v>218.514876865872</v>
       </c>
       <c r="S16">
-        <v>0.06545369464898315</v>
+        <v>0.05557378127669318</v>
       </c>
       <c r="T16">
-        <v>0.06545369464898315</v>
+        <v>0.05557378127669316</v>
       </c>
     </row>
   </sheetData>
